--- a/rebar.xlsx
+++ b/rebar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da88ebe6b0422cef/pycode/projects/rc_section_capacity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F159B8-8695-4C35-A270-6E145722517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B1F159B8-8695-4C35-A270-6E145722517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23912826-3300-4EFC-9C54-48B611671506}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="12166" windowHeight="14362" xr2:uid="{42F8CC81-4422-490E-9AAE-BFCB8403B01A}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{42F8CC81-4422-490E-9AAE-BFCB8403B01A}"/>
   </bookViews>
   <sheets>
     <sheet name="rebar" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Rebar_class</t>
-  </si>
-  <si>
     <t>A240</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>eps_s2_tl</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -453,40 +453,40 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>240</v>
@@ -510,9 +510,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -536,9 +536,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -562,9 +562,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>600</v>
@@ -588,9 +588,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>800</v>
@@ -614,9 +614,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1000</v>
